--- a/Pagos Eventuales realizados/07- JULIO/01- 13.7.23/Agentes a pagar 13.7.23.xlsx
+++ b/Pagos Eventuales realizados/07- JULIO/01- 13.7.23/Agentes a pagar 13.7.23.xlsx
@@ -9,17 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="16512" windowHeight="7560"/>
+    <workbookView xWindow="120" yWindow="0" windowWidth="2052" windowHeight="0"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$J$1:$J$58</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="67">
   <si>
     <t>Nro control</t>
   </si>
@@ -196,6 +199,30 @@
   </si>
   <si>
     <t>EX-2023-05861536- -GDESDE-CGE</t>
+  </si>
+  <si>
+    <t>AÑO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SILVA ELIZABETH DEL CARM </t>
+  </si>
+  <si>
+    <t>EX-2022-03359329- -GDESDE-CGE</t>
+  </si>
+  <si>
+    <t>Bono Aguinaldo 2da cuota 2023 (julio 23)</t>
+  </si>
+  <si>
+    <t>Bono Aguinaldo 2023 2da cuota Julio</t>
+  </si>
+  <si>
+    <t>07/23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLEIBE RAFAEL NICOLAS    </t>
+  </si>
+  <si>
+    <t>PEDIDO DIR DGIPSE MARIO B.</t>
   </si>
 </sst>
 </file>
@@ -275,7 +302,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -323,19 +350,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -348,7 +362,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -375,12 +389,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -399,20 +409,36 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -712,22 +738,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J56"/>
+  <dimension ref="A1:J62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="36.5546875" customWidth="1"/>
     <col min="9" max="10" width="19.5546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -760,30 +786,39 @@
       <c r="I1" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="J1" s="33" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="32">
+      <c r="A2" s="31">
         <v>2020</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2">
+        <v>2020</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="32"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3">
+        <v>2020</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -795,8 +830,11 @@
       <c r="E4" s="15"/>
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
-      <c r="H4" s="28"/>
+      <c r="H4" s="26"/>
       <c r="I4" s="15"/>
+      <c r="J4">
+        <v>2020</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
@@ -805,10 +843,10 @@
       <c r="B5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="20">
         <v>13356589</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="20">
         <v>17084151</v>
       </c>
       <c r="E5" s="11" t="s">
@@ -824,17 +862,23 @@
         <v>46</v>
       </c>
       <c r="I5" s="13"/>
+      <c r="J5">
+        <v>2020</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="12"/>
       <c r="B6" s="5"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
       <c r="E6" s="11"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
       <c r="H6" s="11"/>
       <c r="I6" s="13"/>
+      <c r="J6">
+        <v>2020</v>
+      </c>
     </row>
     <row r="7" spans="1:10" s="15" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
@@ -851,14 +895,18 @@
       <c r="G7" s="8"/>
       <c r="H7" s="9"/>
       <c r="I7" s="7"/>
-      <c r="J7" s="14"/>
+      <c r="J7">
+        <v>2020</v>
+      </c>
     </row>
     <row r="8" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="28"/>
-      <c r="J8" s="14"/>
+      <c r="H8" s="26"/>
+      <c r="J8">
+        <v>2020</v>
+      </c>
     </row>
     <row r="9" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
@@ -867,10 +915,10 @@
       <c r="B9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="22">
+      <c r="C9" s="20">
         <v>13356589</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="20">
         <v>17084151</v>
       </c>
       <c r="E9" s="11" t="s">
@@ -886,19 +934,23 @@
         <v>46</v>
       </c>
       <c r="I9" s="13"/>
-      <c r="J9" s="14"/>
+      <c r="J9">
+        <v>2020</v>
+      </c>
     </row>
     <row r="10" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12"/>
       <c r="B10" s="5"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
       <c r="E10" s="11"/>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
       <c r="H10" s="11"/>
       <c r="I10" s="13"/>
-      <c r="J10" s="14"/>
+      <c r="J10">
+        <v>2020</v>
+      </c>
     </row>
     <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="7"/>
@@ -915,30 +967,39 @@
       <c r="G11" s="8"/>
       <c r="H11" s="9"/>
       <c r="I11" s="7"/>
-    </row>
-    <row r="12" spans="1:10" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="32">
+      <c r="J11">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="31">
         <v>2021</v>
       </c>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33"/>
-    </row>
-    <row r="13" spans="1:10" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="32"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="31"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13">
+        <v>2021</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
@@ -950,8 +1011,11 @@
       <c r="E14" s="15"/>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
-      <c r="H14" s="28"/>
+      <c r="H14" s="26"/>
       <c r="I14" s="15"/>
+      <c r="J14">
+        <v>2021</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
@@ -978,8 +1042,10 @@
       <c r="H15" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="I15" s="30"/>
-      <c r="J15" s="21"/>
+      <c r="I15" s="28"/>
+      <c r="J15">
+        <v>2021</v>
+      </c>
     </row>
     <row r="16" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
@@ -996,7 +1062,9 @@
       <c r="G16" s="8"/>
       <c r="H16" s="9"/>
       <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
+      <c r="J16">
+        <v>2021</v>
+      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
@@ -1008,9 +1076,11 @@
       <c r="E17" s="15"/>
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
-      <c r="H17" s="28"/>
+      <c r="H17" s="26"/>
       <c r="I17" s="15"/>
-      <c r="J17" s="7"/>
+      <c r="J17">
+        <v>2021</v>
+      </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
@@ -1037,8 +1107,10 @@
       <c r="H18" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="I18" s="30"/>
-      <c r="J18" s="7"/>
+      <c r="I18" s="28"/>
+      <c r="J18">
+        <v>2021</v>
+      </c>
     </row>
     <row r="19" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
@@ -1055,7 +1127,9 @@
       <c r="G19" s="8"/>
       <c r="H19" s="9"/>
       <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
+      <c r="J19">
+        <v>2021</v>
+      </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
@@ -1067,9 +1141,11 @@
       <c r="E20" s="15"/>
       <c r="F20" s="15"/>
       <c r="G20" s="15"/>
-      <c r="H20" s="28"/>
+      <c r="H20" s="26"/>
       <c r="I20" s="15"/>
-      <c r="J20" s="7"/>
+      <c r="J20">
+        <v>2021</v>
+      </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
@@ -1096,8 +1172,10 @@
       <c r="H21" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="I21" s="30"/>
-      <c r="J21" s="7"/>
+      <c r="I21" s="28"/>
+      <c r="J21">
+        <v>2021</v>
+      </c>
     </row>
     <row r="22" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5"/>
@@ -1114,7 +1192,9 @@
       <c r="G22" s="8"/>
       <c r="H22" s="9"/>
       <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
+      <c r="J22">
+        <v>2021</v>
+      </c>
     </row>
     <row r="23" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
@@ -1126,9 +1206,11 @@
       <c r="E23" s="15"/>
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
-      <c r="H23" s="28"/>
+      <c r="H23" s="26"/>
       <c r="I23" s="15"/>
-      <c r="J23" s="7"/>
+      <c r="J23">
+        <v>2021</v>
+      </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
@@ -1155,7 +1237,10 @@
       <c r="H24" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="I24" s="30"/>
+      <c r="I24" s="28"/>
+      <c r="J24">
+        <v>2021</v>
+      </c>
     </row>
     <row r="25" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="5"/>
@@ -1172,32 +1257,41 @@
       <c r="G25" s="8"/>
       <c r="H25" s="9"/>
       <c r="I25" s="7"/>
-    </row>
-    <row r="26" spans="1:10" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A26" s="32">
+      <c r="J25">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="31">
         <v>2022</v>
       </c>
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="33"/>
-    </row>
-    <row r="27" spans="1:10" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A27" s="32"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="33"/>
-    </row>
-    <row r="28" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
+      <c r="J26">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="31"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+      <c r="J27">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>20</v>
       </c>
@@ -1207,11 +1301,13 @@
       <c r="E28" s="15"/>
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
-      <c r="H28" s="28"/>
+      <c r="H28" s="26"/>
       <c r="I28" s="15"/>
-      <c r="J28" s="18"/>
-    </row>
-    <row r="29" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J28">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>56</v>
       </c>
@@ -1236,235 +1332,280 @@
       <c r="H29" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="I29" s="30" t="s">
+      <c r="I29" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="J29" s="18"/>
-    </row>
-    <row r="30" spans="1:10" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="5"/>
-      <c r="B30" s="16">
+      <c r="J29">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="5">
+        <v>33955909</v>
+      </c>
+      <c r="D30" s="5">
+        <v>58317664</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F30" s="5">
+        <v>25000</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="I30" s="28"/>
+      <c r="J30">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" s="18" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="5"/>
+      <c r="B31" s="16">
         <v>1</v>
       </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="17">
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="17">
         <f>SUM(F29)</f>
         <v>25000</v>
       </c>
-      <c r="G30" s="8"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="18"/>
-    </row>
-    <row r="31" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
+      <c r="G31" s="8"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="7"/>
+      <c r="J31">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="18"/>
-    </row>
-    <row r="32" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="5" t="s">
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="15"/>
+      <c r="J32">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B33" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C33" s="5">
         <v>22454866</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D33" s="5">
         <v>17087002</v>
       </c>
-      <c r="E32" s="6" t="s">
+      <c r="E33" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F32" s="5">
+      <c r="F33" s="5">
         <v>25000</v>
       </c>
-      <c r="G32" s="5" t="s">
+      <c r="G33" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H32" s="6" t="s">
+      <c r="H33" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="I32" s="30"/>
-      <c r="J32" s="18"/>
-    </row>
-    <row r="33" spans="1:10" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="5"/>
-      <c r="B33" s="16">
+      <c r="I33" s="28"/>
+      <c r="J33">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="5">
+        <v>33955909</v>
+      </c>
+      <c r="D34" s="5">
+        <v>58317664</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F34" s="5">
+        <v>25000</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="I34" s="28"/>
+      <c r="J34">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" s="18" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="5"/>
+      <c r="B35" s="16">
         <v>1</v>
       </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="17">
-        <f>SUM(F32)</f>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="17">
+        <f>SUM(F33)</f>
         <v>25000</v>
       </c>
-      <c r="G33" s="8"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="18"/>
-    </row>
-    <row r="34" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
+      <c r="G35" s="8"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="7"/>
+      <c r="J35">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B34"/>
-      <c r="C34"/>
-      <c r="D34"/>
-      <c r="E34"/>
-      <c r="F34"/>
-      <c r="G34"/>
-      <c r="H34" s="20"/>
-      <c r="I34"/>
-      <c r="J34" s="18"/>
-    </row>
-    <row r="35" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="12" t="s">
+      <c r="B36"/>
+      <c r="C36"/>
+      <c r="D36"/>
+      <c r="E36"/>
+      <c r="F36"/>
+      <c r="G36"/>
+      <c r="H36" s="19"/>
+      <c r="I36"/>
+      <c r="J36">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B37" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="22">
+      <c r="C37" s="20">
         <v>36637911</v>
       </c>
-      <c r="D35" s="22">
+      <c r="D37" s="20">
         <v>29052955</v>
       </c>
-      <c r="E35" s="11" t="s">
+      <c r="E37" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F35" s="10">
+      <c r="F37" s="10">
         <v>60000</v>
       </c>
-      <c r="G35" s="10" t="s">
+      <c r="G37" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H35" s="11" t="s">
+      <c r="H37" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="I35" s="13"/>
-      <c r="J35" s="18"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="5" t="s">
+      <c r="I37" s="13"/>
+      <c r="J37">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B38" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C38" s="5">
         <v>22454866</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D38" s="5">
         <v>17087002</v>
       </c>
-      <c r="E36" s="11" t="s">
+      <c r="E38" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F36" s="10">
+      <c r="F38" s="10">
         <v>60000</v>
       </c>
-      <c r="G36" s="10" t="s">
+      <c r="G38" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H36" s="6" t="s">
+      <c r="H38" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="I36" s="13"/>
-    </row>
-    <row r="37" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="12"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="13"/>
-    </row>
-    <row r="38" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="7"/>
-      <c r="B38" s="16">
+      <c r="I38" s="13"/>
+      <c r="J38">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="7"/>
+      <c r="B39" s="16">
         <v>2</v>
       </c>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="17">
-        <f>SUM(F35:F37)</f>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="17">
+        <f>SUM(F37:F38)</f>
         <v>120000</v>
       </c>
-      <c r="G38" s="8"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="7"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
+      <c r="G39" s="8"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="7"/>
+      <c r="J39">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B39" s="29"/>
-      <c r="C39" s="29"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="29"/>
-      <c r="G39" s="29"/>
-      <c r="H39" s="31"/>
-      <c r="I39" s="29"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="12" t="s">
+      <c r="B40" s="27"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="29"/>
+      <c r="I40" s="27"/>
+      <c r="J40">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" s="12" t="s">
         <v>35</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C40" s="22">
-        <v>32539994</v>
-      </c>
-      <c r="D40" s="22">
-        <v>38957383</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F40" s="5">
-        <v>80000</v>
-      </c>
-      <c r="G40" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H40" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="I40" s="13"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" s="5" t="s">
-        <v>56</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C41" s="5">
-        <v>22454866</v>
-      </c>
-      <c r="D41" s="5">
-        <v>17087002</v>
+      <c r="C41" s="20">
+        <v>32539994</v>
+      </c>
+      <c r="D41" s="20">
+        <v>38957383</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>10</v>
@@ -1475,110 +1616,131 @@
       <c r="G41" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H41" s="6" t="s">
+      <c r="H41" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I41" s="13"/>
+      <c r="J41">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" s="5">
+        <v>22454866</v>
+      </c>
+      <c r="D42" s="5">
+        <v>17087002</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" s="5">
+        <v>80000</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H42" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="I41" s="13"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42" s="12"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="23"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="11"/>
       <c r="I42" s="13"/>
-    </row>
-    <row r="43" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B43" s="16">
+      <c r="J42">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" s="12"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="13"/>
+      <c r="J43">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B44" s="16">
         <v>2</v>
       </c>
-      <c r="C43" s="25"/>
-      <c r="D43" s="25"/>
-      <c r="F43" s="17">
-        <f>SUM(F40:F42)</f>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
+      <c r="F44" s="17">
+        <f>SUM(F41:F43)</f>
         <v>160000</v>
       </c>
-      <c r="H43" s="20"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" s="32">
+      <c r="H44" s="19"/>
+      <c r="J44">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45" s="31">
         <v>2023</v>
       </c>
-      <c r="B44" s="33"/>
-      <c r="C44" s="33"/>
-      <c r="D44" s="33"/>
-      <c r="E44" s="33"/>
-      <c r="F44" s="33"/>
-      <c r="G44" s="33"/>
-      <c r="H44" s="33"/>
-      <c r="I44" s="33"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A45" s="32"/>
-      <c r="B45" s="33"/>
-      <c r="C45" s="33"/>
-      <c r="D45" s="33"/>
-      <c r="E45" s="33"/>
-      <c r="F45" s="33"/>
-      <c r="G45" s="33"/>
-      <c r="H45" s="33"/>
-      <c r="I45" s="33"/>
+      <c r="B45" s="32"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="32"/>
+      <c r="F45" s="32"/>
+      <c r="G45" s="32"/>
+      <c r="H45" s="32"/>
+      <c r="I45" s="32"/>
+      <c r="J45">
+        <v>2023</v>
+      </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="31"/>
+      <c r="B46" s="32"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="32"/>
+      <c r="G46" s="32"/>
+      <c r="H46" s="32"/>
+      <c r="I46" s="32"/>
+      <c r="J46">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B46" s="29"/>
-      <c r="C46" s="34"/>
-      <c r="D46" s="34"/>
-      <c r="E46" s="31"/>
-      <c r="F46" s="29"/>
-      <c r="G46" s="29"/>
-      <c r="H46" s="31"/>
-      <c r="I46" s="29"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A47" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C47" s="22">
-        <v>32539994</v>
-      </c>
-      <c r="D47" s="22">
-        <v>38957383</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F47" s="5">
-        <v>60000</v>
-      </c>
-      <c r="G47" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H47" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="I47" s="13"/>
+      <c r="B47" s="27"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="27"/>
+      <c r="G47" s="27"/>
+      <c r="H47" s="29"/>
+      <c r="I47" s="27"/>
+      <c r="J47">
+        <v>2023</v>
+      </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C48" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="D48" s="24">
-        <v>35005474</v>
+      <c r="C48" s="20">
+        <v>32539994</v>
+      </c>
+      <c r="D48" s="20">
+        <v>38957383</v>
       </c>
       <c r="E48" s="6" t="s">
         <v>11</v>
@@ -1590,22 +1752,25 @@
         <v>31</v>
       </c>
       <c r="H48" s="11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I48" s="13"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A49" s="5" t="s">
-        <v>56</v>
+      <c r="J48">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49" s="12" t="s">
+        <v>36</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C49" s="5">
-        <v>22454866</v>
-      </c>
-      <c r="D49" s="5">
-        <v>17087002</v>
+      <c r="C49" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D49" s="22">
+        <v>35005474</v>
       </c>
       <c r="E49" s="6" t="s">
         <v>11</v>
@@ -1616,117 +1781,269 @@
       <c r="G49" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H49" s="6" t="s">
+      <c r="H49" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I49" s="13"/>
+      <c r="J49">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C50" s="5">
+        <v>22454866</v>
+      </c>
+      <c r="D50" s="5">
+        <v>17087002</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50" s="5">
+        <v>60000</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H50" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="I49" s="13"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A50" s="12"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="23"/>
-      <c r="D50" s="23"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="11"/>
       <c r="I50" s="13"/>
-    </row>
-    <row r="51" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B51" s="16">
+      <c r="J50">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A51" s="12"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="13"/>
+      <c r="J51">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52" s="14"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="35"/>
+      <c r="D52" s="35"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="34"/>
+    </row>
+    <row r="53" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B53" s="16">
         <v>3</v>
       </c>
-      <c r="F51" s="17">
-        <f>SUM(F47:F50)</f>
+      <c r="F53" s="17">
+        <f>SUM(F48:F51)</f>
         <v>180000</v>
       </c>
-      <c r="H51" s="20"/>
-    </row>
-    <row r="52" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A52" s="15"/>
-      <c r="B52" s="26"/>
-      <c r="C52" s="15"/>
-      <c r="D52" s="15"/>
-      <c r="E52" s="15"/>
-      <c r="F52" s="27"/>
-      <c r="G52" s="15"/>
-      <c r="H52" s="28"/>
-      <c r="I52" s="15"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
+      <c r="H53" s="19"/>
+      <c r="J53">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A54" s="15"/>
+      <c r="B54" s="24"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="25"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="26"/>
+      <c r="I54" s="15"/>
+      <c r="J54">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B53" s="29"/>
-      <c r="C53" s="29"/>
-      <c r="D53" s="29"/>
-      <c r="E53" s="31"/>
-      <c r="F53" s="29"/>
-      <c r="G53" s="29"/>
-      <c r="H53" s="31"/>
-      <c r="I53" s="29"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A54" s="12" t="s">
+      <c r="B55" s="27"/>
+      <c r="C55" s="27"/>
+      <c r="D55" s="27"/>
+      <c r="E55" s="29"/>
+      <c r="F55" s="27"/>
+      <c r="G55" s="27"/>
+      <c r="H55" s="29"/>
+      <c r="I55" s="27"/>
+      <c r="J55">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A56" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B56" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C54" s="5">
+      <c r="C56" s="5">
         <v>26368583</v>
       </c>
-      <c r="D54" s="5">
+      <c r="D56" s="5">
         <v>59153594</v>
       </c>
-      <c r="E54" s="6" t="s">
+      <c r="E56" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F54" s="5">
+      <c r="F56" s="5">
         <v>750000</v>
       </c>
-      <c r="G54" s="5" t="s">
+      <c r="G56" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H54" s="11" t="s">
+      <c r="H56" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="I54" s="30"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A55" s="12"/>
-      <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="5"/>
-      <c r="H55" s="11"/>
-      <c r="I55" s="30"/>
-    </row>
-    <row r="56" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A56" s="15"/>
-      <c r="B56" s="16">
+      <c r="I56" s="28"/>
+      <c r="J56">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A57" s="12"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="28"/>
+      <c r="J57">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A58" s="15"/>
+      <c r="B58" s="16">
         <v>1</v>
       </c>
-      <c r="C56" s="15"/>
-      <c r="D56" s="15"/>
-      <c r="E56" s="15"/>
-      <c r="F56" s="17">
-        <f>SUM(F54:F55)</f>
+      <c r="C58" s="15"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="17">
+        <f>SUM(F56:F57)</f>
         <v>750000</v>
       </c>
-      <c r="G56" s="15"/>
-      <c r="H56" s="28"/>
-      <c r="I56" s="15"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="26"/>
+      <c r="I58" s="15"/>
+      <c r="J58">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B59" s="27"/>
+      <c r="C59" s="27"/>
+      <c r="D59" s="27"/>
+      <c r="E59" s="29"/>
+      <c r="F59" s="27"/>
+      <c r="G59" s="27"/>
+      <c r="H59" s="29"/>
+      <c r="I59" s="27"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A60" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C60" s="5">
+        <v>26161455</v>
+      </c>
+      <c r="D60" s="5">
+        <v>98005712</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F60" s="5">
+        <v>750000</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H60" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="I60" s="28"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A61" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C61" s="5">
+        <v>26368583</v>
+      </c>
+      <c r="D61" s="5">
+        <v>59153594</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F61" s="5">
+        <v>750000</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H61" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="I61" s="28"/>
+    </row>
+    <row r="62" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A62" s="15"/>
+      <c r="B62" s="16">
+        <v>1</v>
+      </c>
+      <c r="C62" s="15"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="15"/>
+      <c r="F62" s="17">
+        <f>SUM(F60:F61)</f>
+        <v>1500000</v>
+      </c>
+      <c r="G62" s="15"/>
+      <c r="H62" s="26"/>
+      <c r="I62" s="15"/>
     </row>
   </sheetData>
+  <autoFilter ref="J1:J58"/>
   <mergeCells count="4">
     <mergeCell ref="A26:I27"/>
     <mergeCell ref="A12:I13"/>
     <mergeCell ref="A2:I3"/>
-    <mergeCell ref="A44:I45"/>
+    <mergeCell ref="A45:I46"/>
   </mergeCells>
+  <conditionalFormatting sqref="H1:H1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
